--- a/MATLAB/Eingebunden/Mappe6.xlsx
+++ b/MATLAB/Eingebunden/Mappe6.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>T_AUL</t>
   </si>
@@ -428,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D116"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4884,4 +4885,2676 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K70"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>19.536500000000004</v>
+      </c>
+      <c r="D2">
+        <v>17.957000000000001</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:F48" si="0">C2-G2</f>
+        <v>0.21350000000000691</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>0.9599999999999973</v>
+      </c>
+      <c r="G2">
+        <v>19.322999999999997</v>
+      </c>
+      <c r="H2">
+        <v>16.997000000000003</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I65" si="1">K2-J2</f>
+        <v>5.1184999999999992</v>
+      </c>
+      <c r="J2">
+        <v>15.780999999999997</v>
+      </c>
+      <c r="K2">
+        <v>20.899499999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>18.278999999999996</v>
+      </c>
+      <c r="D3">
+        <v>15.456499999999997</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>0.41549999999999798</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>1.8779999999999966</v>
+      </c>
+      <c r="G3">
+        <v>17.863499999999998</v>
+      </c>
+      <c r="H3">
+        <v>13.5785</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>9.4379999999999988</v>
+      </c>
+      <c r="J3">
+        <v>11.351499999999998</v>
+      </c>
+      <c r="K3">
+        <v>20.789499999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>20.752499999999994</v>
+      </c>
+      <c r="D4">
+        <v>20.433999999999997</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>4.5499999999989882E-2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0.12299999999999756</v>
+      </c>
+      <c r="G4">
+        <v>20.707000000000004</v>
+      </c>
+      <c r="H4">
+        <v>20.311</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>0.90499999999999048</v>
+      </c>
+      <c r="J4">
+        <v>20.106500000000004</v>
+      </c>
+      <c r="K4">
+        <v>21.011499999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>19.564285714285717</v>
+      </c>
+      <c r="D5">
+        <v>18.000952380952384</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.24095238095238614</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.95857142857142819</v>
+      </c>
+      <c r="G5">
+        <v>19.323333333333331</v>
+      </c>
+      <c r="H5">
+        <v>17.042380952380956</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>5.0666666666666593</v>
+      </c>
+      <c r="J5">
+        <v>15.824761904761907</v>
+      </c>
+      <c r="K5">
+        <v>20.891428571428566</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>19.623333333333338</v>
+      </c>
+      <c r="D6">
+        <v>18.067142857142855</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.26428571428571956</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999645</v>
+      </c>
+      <c r="G6">
+        <v>19.359047619047619</v>
+      </c>
+      <c r="H6">
+        <v>17.067142857142859</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>5.1195238095238036</v>
+      </c>
+      <c r="J6">
+        <v>15.838571428571429</v>
+      </c>
+      <c r="K6">
+        <v>20.958095238095233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>19.957083333333326</v>
+      </c>
+      <c r="D7">
+        <v>17.882916666666663</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>-9.5833333333342097E-2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.59999999999998721</v>
+      </c>
+      <c r="G7">
+        <v>20.052916666666668</v>
+      </c>
+      <c r="H7">
+        <v>17.282916666666676</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>4.4504166666666585</v>
+      </c>
+      <c r="J7">
+        <v>16.380833333333332</v>
+      </c>
+      <c r="K7">
+        <v>20.83124999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>19.94714286</v>
+      </c>
+      <c r="D8">
+        <v>17.862380949999999</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>-0.13047618999999955</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.57619047000000023</v>
+      </c>
+      <c r="G8">
+        <v>20.077619049999999</v>
+      </c>
+      <c r="H8">
+        <v>17.286190479999998</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>4.4542857100000006</v>
+      </c>
+      <c r="J8">
+        <v>16.38</v>
+      </c>
+      <c r="K8">
+        <v>20.83428571</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>19.725238095238097</v>
+      </c>
+      <c r="D9">
+        <v>17.779523809523813</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>-8.5714285714278304E-2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.55666666666667197</v>
+      </c>
+      <c r="G9">
+        <v>19.810952380952376</v>
+      </c>
+      <c r="H9">
+        <v>17.222857142857141</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>4.1680952380952334</v>
+      </c>
+      <c r="J9">
+        <v>16.340000000000003</v>
+      </c>
+      <c r="K9">
+        <v>20.508095238095237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>19.283999999999999</v>
+      </c>
+      <c r="D10">
+        <v>17.8705</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.17299999999999827</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.88649999999999807</v>
+      </c>
+      <c r="G10">
+        <v>19.111000000000001</v>
+      </c>
+      <c r="H10">
+        <v>16.984000000000002</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>4.7295000000000016</v>
+      </c>
+      <c r="J10">
+        <v>15.817</v>
+      </c>
+      <c r="K10">
+        <v>20.546500000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>23.225714289999999</v>
+      </c>
+      <c r="D11">
+        <v>25.660952380000001</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>-9.2857139999999561E-2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>-1.6161904800000002</v>
+      </c>
+      <c r="G11">
+        <v>23.318571429999999</v>
+      </c>
+      <c r="H11">
+        <v>27.277142860000001</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>-8.4452380999999974</v>
+      </c>
+      <c r="J11">
+        <v>29.31</v>
+      </c>
+      <c r="K11">
+        <v>20.864761900000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>11.400476189999999</v>
+      </c>
+      <c r="D12">
+        <v>5.5685714290000004</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>-0.20666667000000061</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>6.9123809530000004</v>
+      </c>
+      <c r="G12">
+        <v>11.60714286</v>
+      </c>
+      <c r="H12">
+        <v>-1.3438095240000001</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>29.069523807000003</v>
+      </c>
+      <c r="J12">
+        <v>-8.5766666669999996</v>
+      </c>
+      <c r="K12">
+        <v>20.492857140000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>11.39190476190476</v>
+      </c>
+      <c r="D13">
+        <v>5.5514285714285725</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>-0.21476190476190737</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>6.9114285714285728</v>
+      </c>
+      <c r="G13">
+        <v>11.606666666666667</v>
+      </c>
+      <c r="H13">
+        <v>-1.3600000000000003</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>29.058571428571426</v>
+      </c>
+      <c r="J13">
+        <v>-8.6142857142857139</v>
+      </c>
+      <c r="K13">
+        <v>20.444285714285712</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>11.434090909090909</v>
+      </c>
+      <c r="D14">
+        <v>5.622272727272728</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>-0.17954545454545645</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>6.9386363636363644</v>
+      </c>
+      <c r="G14">
+        <v>11.613636363636365</v>
+      </c>
+      <c r="H14">
+        <v>-1.3163636363636362</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>29.059545454545457</v>
+      </c>
+      <c r="J14">
+        <v>-8.6399999999999988</v>
+      </c>
+      <c r="K14">
+        <v>20.41954545454546</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>11.51142857</v>
+      </c>
+      <c r="D15">
+        <v>5.9166666670000003</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>-0.16714286000000023</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>6.9466666670000006</v>
+      </c>
+      <c r="G15">
+        <v>11.67857143</v>
+      </c>
+      <c r="H15">
+        <v>-1.03</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>28.999999999</v>
+      </c>
+      <c r="J15">
+        <v>-8.5990476190000003</v>
+      </c>
+      <c r="K15">
+        <v>20.40095238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>11.197999999999999</v>
+      </c>
+      <c r="D16">
+        <v>6.2620000000000005</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>-0.55850000000000222</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>7.3185000000000002</v>
+      </c>
+      <c r="G16">
+        <v>11.756500000000001</v>
+      </c>
+      <c r="H16">
+        <v>-1.0565000000000002</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>28.499500000000005</v>
+      </c>
+      <c r="J16">
+        <v>-8.2885000000000026</v>
+      </c>
+      <c r="K16">
+        <v>20.211000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>14.2835</v>
+      </c>
+      <c r="D17">
+        <v>9.7609999999999992</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>-0.7710000000000008</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>3.2699999999999996</v>
+      </c>
+      <c r="G17">
+        <v>15.054500000000001</v>
+      </c>
+      <c r="H17">
+        <v>6.4909999999999997</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>18.227</v>
+      </c>
+      <c r="J17">
+        <v>2.1465000000000001</v>
+      </c>
+      <c r="K17">
+        <v>20.3735</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>14.029</v>
+      </c>
+      <c r="D18">
+        <v>9.7025000000000006</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>-1.0024999999999995</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>3.3285000000000009</v>
+      </c>
+      <c r="G18">
+        <v>15.031499999999999</v>
+      </c>
+      <c r="H18">
+        <v>6.3739999999999997</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>18.1905</v>
+      </c>
+      <c r="J18">
+        <v>2.1970000000000001</v>
+      </c>
+      <c r="K18">
+        <v>20.387499999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>14.467499999999999</v>
+      </c>
+      <c r="D19">
+        <v>10.4245</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>-0.69749999999999979</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>3.6859999999999999</v>
+      </c>
+      <c r="G19">
+        <v>15.164999999999999</v>
+      </c>
+      <c r="H19">
+        <v>6.7385000000000002</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>18.139000000000003</v>
+      </c>
+      <c r="J19">
+        <v>2.2324999999999999</v>
+      </c>
+      <c r="K19">
+        <v>20.371500000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>14.3575</v>
+      </c>
+      <c r="D20">
+        <v>9.9425000000000008</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>-0.76900000000000013</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>3.4400000000000004</v>
+      </c>
+      <c r="G20">
+        <v>15.1265</v>
+      </c>
+      <c r="H20">
+        <v>6.5025000000000004</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>18.350999999999999</v>
+      </c>
+      <c r="J20">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K20">
+        <v>20.550999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>17.708571429999999</v>
+      </c>
+      <c r="D21">
+        <v>15.016666669999999</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>-0.20714286000000115</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>1.7609523799999991</v>
+      </c>
+      <c r="G21">
+        <v>17.91571429</v>
+      </c>
+      <c r="H21">
+        <v>13.25571429</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>9.8280952399999979</v>
+      </c>
+      <c r="J21">
+        <v>10.97</v>
+      </c>
+      <c r="K21">
+        <v>20.798095239999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>18.086500000000001</v>
+      </c>
+      <c r="D22">
+        <v>15.339499999999999</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>0.19000000000000128</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>1.8244999999999987</v>
+      </c>
+      <c r="G22">
+        <v>17.8965</v>
+      </c>
+      <c r="H22">
+        <v>13.515000000000001</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>9.5</v>
+      </c>
+      <c r="J22">
+        <v>11.1645</v>
+      </c>
+      <c r="K22">
+        <v>20.6645</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>17.994999999999997</v>
+      </c>
+      <c r="D23">
+        <v>15.228750000000002</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>0.21499999999999631</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>1.7637499999999999</v>
+      </c>
+      <c r="G23">
+        <v>17.78</v>
+      </c>
+      <c r="H23">
+        <v>13.465000000000002</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>9.3612500000000018</v>
+      </c>
+      <c r="J23">
+        <v>11.164999999999999</v>
+      </c>
+      <c r="K23">
+        <v>20.526250000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>20.513999999999999</v>
+      </c>
+      <c r="D24">
+        <v>20.253</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>3.6500000000000199E-2</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0.11550000000000082</v>
+      </c>
+      <c r="G24">
+        <v>20.477499999999999</v>
+      </c>
+      <c r="H24">
+        <v>20.137499999999999</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>0.7900000000000027</v>
+      </c>
+      <c r="J24">
+        <v>19.988499999999998</v>
+      </c>
+      <c r="K24">
+        <v>20.778500000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>19.421000000000006</v>
+      </c>
+      <c r="D25">
+        <v>17.481999999999996</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>9.8000000000009635E-2</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0.48499999999999233</v>
+      </c>
+      <c r="G25">
+        <v>19.322999999999997</v>
+      </c>
+      <c r="H25">
+        <v>16.997000000000003</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>5.1184999999999992</v>
+      </c>
+      <c r="J25">
+        <v>15.780999999999997</v>
+      </c>
+      <c r="K25">
+        <v>20.899499999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>18.138999999999999</v>
+      </c>
+      <c r="D26">
+        <v>14.564999999999998</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>0.27550000000000097</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>0.98649999999999771</v>
+      </c>
+      <c r="G26">
+        <v>17.863499999999998</v>
+      </c>
+      <c r="H26">
+        <v>13.5785</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>9.4379999999999988</v>
+      </c>
+      <c r="J26">
+        <v>11.351499999999998</v>
+      </c>
+      <c r="K26">
+        <v>20.789499999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>20.588500000000003</v>
+      </c>
+      <c r="D27">
+        <v>20.342000000000006</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>-0.11850000000000094</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>3.1000000000005912E-2</v>
+      </c>
+      <c r="G27">
+        <v>20.707000000000004</v>
+      </c>
+      <c r="H27">
+        <v>20.311</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>0.90499999999999048</v>
+      </c>
+      <c r="J27">
+        <v>20.106500000000004</v>
+      </c>
+      <c r="K27">
+        <v>21.011499999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>19.435238095238098</v>
+      </c>
+      <c r="D28">
+        <v>17.524761904761903</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>0.11190476190476772</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0.48238095238094658</v>
+      </c>
+      <c r="G28">
+        <v>19.323333333333331</v>
+      </c>
+      <c r="H28">
+        <v>17.042380952380956</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>5.0666666666666593</v>
+      </c>
+      <c r="J28">
+        <v>15.824761904761907</v>
+      </c>
+      <c r="K28">
+        <v>20.891428571428566</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>19.500000000000004</v>
+      </c>
+      <c r="D29">
+        <v>17.571428571428569</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>0.14095238095238471</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>0.5042857142857109</v>
+      </c>
+      <c r="G29">
+        <v>19.359047619047619</v>
+      </c>
+      <c r="H29">
+        <v>17.067142857142859</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>5.1195238095238036</v>
+      </c>
+      <c r="J29">
+        <v>15.838571428571429</v>
+      </c>
+      <c r="K29">
+        <v>20.958095238095233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>19.842083333333335</v>
+      </c>
+      <c r="D30">
+        <v>17.39083333333333</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>-0.21083333333333343</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>0.10791666666665378</v>
+      </c>
+      <c r="G30">
+        <v>20.052916666666668</v>
+      </c>
+      <c r="H30">
+        <v>17.282916666666676</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>4.4504166666666585</v>
+      </c>
+      <c r="J30">
+        <v>16.380833333333332</v>
+      </c>
+      <c r="K30">
+        <v>20.83124999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>19.837619050000001</v>
+      </c>
+      <c r="D31">
+        <v>17.405714289999999</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>-0.23999999999999844</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>0.11952381000000045</v>
+      </c>
+      <c r="G31">
+        <v>20.077619049999999</v>
+      </c>
+      <c r="H31">
+        <v>17.286190479999998</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>4.4542857100000006</v>
+      </c>
+      <c r="J31">
+        <v>16.38</v>
+      </c>
+      <c r="K31">
+        <v>20.83428571</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>19.664761904761903</v>
+      </c>
+      <c r="D32">
+        <v>17.360476190476192</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>-0.14619047619047265</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>0.13761904761905086</v>
+      </c>
+      <c r="G32">
+        <v>19.810952380952376</v>
+      </c>
+      <c r="H32">
+        <v>17.222857142857141</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>4.1680952380952334</v>
+      </c>
+      <c r="J32">
+        <v>16.340000000000003</v>
+      </c>
+      <c r="K32">
+        <v>20.508095238095237</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>19.2575</v>
+      </c>
+      <c r="D33">
+        <v>17.4435</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>0.14649999999999963</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>0.45949999999999847</v>
+      </c>
+      <c r="G33">
+        <v>19.111000000000001</v>
+      </c>
+      <c r="H33">
+        <v>16.984000000000002</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>4.7295000000000016</v>
+      </c>
+      <c r="J33">
+        <v>15.817</v>
+      </c>
+      <c r="K33">
+        <v>20.546500000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>23.228571429999999</v>
+      </c>
+      <c r="D34">
+        <v>26.631428570000001</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>-8.9999999999999858E-2</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>-0.6457142900000008</v>
+      </c>
+      <c r="G34">
+        <v>23.318571429999999</v>
+      </c>
+      <c r="H34">
+        <v>27.277142860000001</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>-8.4452380999999974</v>
+      </c>
+      <c r="J34">
+        <v>29.31</v>
+      </c>
+      <c r="K34">
+        <v>20.864761900000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>7.8709523810000004</v>
+      </c>
+      <c r="D35">
+        <v>1.11952381</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>-3.7361904789999993</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>2.4633333340000001</v>
+      </c>
+      <c r="G35">
+        <v>11.60714286</v>
+      </c>
+      <c r="H35">
+        <v>-1.3438095240000001</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>29.069523807000003</v>
+      </c>
+      <c r="J35">
+        <v>-8.5766666669999996</v>
+      </c>
+      <c r="K35">
+        <v>20.492857140000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>7.706190476190474</v>
+      </c>
+      <c r="D36">
+        <v>1.136190476190476</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>-3.9004761904761933</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>2.4961904761904763</v>
+      </c>
+      <c r="G36">
+        <v>11.606666666666667</v>
+      </c>
+      <c r="H36">
+        <v>-1.3600000000000003</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>29.058571428571426</v>
+      </c>
+      <c r="J36">
+        <v>-8.6142857142857139</v>
+      </c>
+      <c r="K36">
+        <v>20.444285714285712</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>7.7077272727272739</v>
+      </c>
+      <c r="D37">
+        <v>1.2268181818181818</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>-3.9059090909090912</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>2.543181818181818</v>
+      </c>
+      <c r="G37">
+        <v>11.613636363636365</v>
+      </c>
+      <c r="H37">
+        <v>-1.3163636363636362</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>29.059545454545457</v>
+      </c>
+      <c r="J37">
+        <v>-8.6399999999999988</v>
+      </c>
+      <c r="K37">
+        <v>20.41954545454546</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>7.947619048</v>
+      </c>
+      <c r="D38">
+        <v>1.6723809519999999</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>-3.7309523819999999</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>2.7023809519999999</v>
+      </c>
+      <c r="G38">
+        <v>11.67857143</v>
+      </c>
+      <c r="H38">
+        <v>-1.03</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>28.999999999</v>
+      </c>
+      <c r="J38">
+        <v>-8.5990476190000003</v>
+      </c>
+      <c r="K38">
+        <v>20.40095238</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>8.1170000000000009</v>
+      </c>
+      <c r="D39">
+        <v>1.7284999999999999</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>-3.6395</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>2.7850000000000001</v>
+      </c>
+      <c r="G39">
+        <v>11.756500000000001</v>
+      </c>
+      <c r="H39">
+        <v>-1.0565000000000002</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>28.499500000000005</v>
+      </c>
+      <c r="J39">
+        <v>-8.2885000000000026</v>
+      </c>
+      <c r="K39">
+        <v>20.211000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>13.666499999999999</v>
+      </c>
+      <c r="D40">
+        <v>6.6375000000000002</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>-1.3880000000000017</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>0.14650000000000052</v>
+      </c>
+      <c r="G40">
+        <v>15.054500000000001</v>
+      </c>
+      <c r="H40">
+        <v>6.4909999999999997</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>18.227</v>
+      </c>
+      <c r="J40">
+        <v>2.1465000000000001</v>
+      </c>
+      <c r="K40">
+        <v>20.3735</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>13.513</v>
+      </c>
+      <c r="D41">
+        <v>6.1609999999999996</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>-1.5184999999999995</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>-0.21300000000000008</v>
+      </c>
+      <c r="G41">
+        <v>15.031499999999999</v>
+      </c>
+      <c r="H41">
+        <v>6.3739999999999997</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>18.1905</v>
+      </c>
+      <c r="J41">
+        <v>2.1970000000000001</v>
+      </c>
+      <c r="K41">
+        <v>20.387499999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>14.038500000000001</v>
+      </c>
+      <c r="D42">
+        <v>7.0039999999999996</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>-1.1264999999999983</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>0.2654999999999994</v>
+      </c>
+      <c r="G42">
+        <v>15.164999999999999</v>
+      </c>
+      <c r="H42">
+        <v>6.7385000000000002</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="1"/>
+        <v>18.139000000000003</v>
+      </c>
+      <c r="J42">
+        <v>2.2324999999999999</v>
+      </c>
+      <c r="K42">
+        <v>20.371500000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>13.826499999999999</v>
+      </c>
+      <c r="D43">
+        <v>6.2765000000000004</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>-1.3000000000000007</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>-0.22599999999999998</v>
+      </c>
+      <c r="G43">
+        <v>15.1265</v>
+      </c>
+      <c r="H43">
+        <v>6.5025000000000004</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="1"/>
+        <v>18.350999999999999</v>
+      </c>
+      <c r="J43">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K43">
+        <v>20.550999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>16.989047620000001</v>
+      </c>
+      <c r="D44">
+        <v>12.76857143</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>-0.92666666999999947</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>-0.48714286000000051</v>
+      </c>
+      <c r="G44">
+        <v>17.91571429</v>
+      </c>
+      <c r="H44">
+        <v>13.25571429</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>9.8280952399999979</v>
+      </c>
+      <c r="J44">
+        <v>10.97</v>
+      </c>
+      <c r="K44">
+        <v>20.798095239999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>17.599499999999999</v>
+      </c>
+      <c r="D45">
+        <v>14.1485</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>-0.2970000000000006</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>0.63349999999999973</v>
+      </c>
+      <c r="G45">
+        <v>17.8965</v>
+      </c>
+      <c r="H45">
+        <v>13.515000000000001</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="1"/>
+        <v>9.5</v>
+      </c>
+      <c r="J45">
+        <v>11.1645</v>
+      </c>
+      <c r="K45">
+        <v>20.6645</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>17.56625</v>
+      </c>
+      <c r="D46">
+        <v>14.1325</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>-0.21375000000000099</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>0.66749999999999865</v>
+      </c>
+      <c r="G46">
+        <v>17.78</v>
+      </c>
+      <c r="H46">
+        <v>13.465000000000002</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="1"/>
+        <v>9.3612500000000018</v>
+      </c>
+      <c r="J46">
+        <v>11.164999999999999</v>
+      </c>
+      <c r="K46">
+        <v>20.526250000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>20.224</v>
+      </c>
+      <c r="D47">
+        <v>19.987500000000001</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>-0.25349999999999895</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>-0.14999999999999858</v>
+      </c>
+      <c r="G47">
+        <v>20.477499999999999</v>
+      </c>
+      <c r="H47">
+        <v>20.137499999999999</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="1"/>
+        <v>0.7900000000000027</v>
+      </c>
+      <c r="J47">
+        <v>19.988499999999998</v>
+      </c>
+      <c r="K47">
+        <v>20.778500000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>19.322999999999997</v>
+      </c>
+      <c r="D48">
+        <v>16.997000000000003</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>19.322999999999997</v>
+      </c>
+      <c r="H48">
+        <v>16.997000000000003</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="1"/>
+        <v>5.1184999999999992</v>
+      </c>
+      <c r="J48">
+        <v>15.780999999999997</v>
+      </c>
+      <c r="K48">
+        <v>20.899499999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>17.863499999999998</v>
+      </c>
+      <c r="D49">
+        <v>13.5785</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ref="E49:F70" si="2">C49-G49</f>
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>17.863499999999998</v>
+      </c>
+      <c r="H49">
+        <v>13.5785</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="1"/>
+        <v>9.4379999999999988</v>
+      </c>
+      <c r="J49">
+        <v>11.351499999999998</v>
+      </c>
+      <c r="K49">
+        <v>20.789499999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>20.707000000000004</v>
+      </c>
+      <c r="D50">
+        <v>20.311</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>20.707000000000004</v>
+      </c>
+      <c r="H50">
+        <v>20.311</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="1"/>
+        <v>0.90499999999999048</v>
+      </c>
+      <c r="J50">
+        <v>20.106500000000004</v>
+      </c>
+      <c r="K50">
+        <v>21.011499999999995</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>19.323333333333331</v>
+      </c>
+      <c r="D51">
+        <v>17.042380952380956</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>19.323333333333331</v>
+      </c>
+      <c r="H51">
+        <v>17.042380952380956</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="1"/>
+        <v>5.0666666666666593</v>
+      </c>
+      <c r="J51">
+        <v>15.824761904761907</v>
+      </c>
+      <c r="K51">
+        <v>20.891428571428566</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>19.359047619047619</v>
+      </c>
+      <c r="D52">
+        <v>17.067142857142859</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>19.359047619047619</v>
+      </c>
+      <c r="H52">
+        <v>17.067142857142859</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="1"/>
+        <v>5.1195238095238036</v>
+      </c>
+      <c r="J52">
+        <v>15.838571428571429</v>
+      </c>
+      <c r="K52">
+        <v>20.958095238095233</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>20.052916666666668</v>
+      </c>
+      <c r="D53">
+        <v>17.282916666666676</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>20.052916666666668</v>
+      </c>
+      <c r="H53">
+        <v>17.282916666666676</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="1"/>
+        <v>4.4504166666666585</v>
+      </c>
+      <c r="J53">
+        <v>16.380833333333332</v>
+      </c>
+      <c r="K53">
+        <v>20.83124999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>20.077619049999999</v>
+      </c>
+      <c r="D54">
+        <v>17.286190479999998</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>20.077619049999999</v>
+      </c>
+      <c r="H54">
+        <v>17.286190479999998</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="1"/>
+        <v>4.4542857100000006</v>
+      </c>
+      <c r="J54">
+        <v>16.38</v>
+      </c>
+      <c r="K54">
+        <v>20.83428571</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>19.810952380952376</v>
+      </c>
+      <c r="D55">
+        <v>17.222857142857141</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>19.810952380952376</v>
+      </c>
+      <c r="H55">
+        <v>17.222857142857141</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="1"/>
+        <v>4.1680952380952334</v>
+      </c>
+      <c r="J55">
+        <v>16.340000000000003</v>
+      </c>
+      <c r="K55">
+        <v>20.508095238095237</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>19.111000000000001</v>
+      </c>
+      <c r="D56">
+        <v>16.984000000000002</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>19.111000000000001</v>
+      </c>
+      <c r="H56">
+        <v>16.984000000000002</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="1"/>
+        <v>4.7295000000000016</v>
+      </c>
+      <c r="J56">
+        <v>15.817</v>
+      </c>
+      <c r="K56">
+        <v>20.546500000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>23.318571429999999</v>
+      </c>
+      <c r="D57">
+        <v>27.277142860000001</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>23.318571429999999</v>
+      </c>
+      <c r="H57">
+        <v>27.277142860000001</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="1"/>
+        <v>-8.4452380999999974</v>
+      </c>
+      <c r="J57">
+        <v>29.31</v>
+      </c>
+      <c r="K57">
+        <v>20.864761900000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>11.60714286</v>
+      </c>
+      <c r="D58">
+        <v>-1.3438095240000001</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>11.60714286</v>
+      </c>
+      <c r="H58">
+        <v>-1.3438095240000001</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="1"/>
+        <v>29.069523807000003</v>
+      </c>
+      <c r="J58">
+        <v>-8.5766666669999996</v>
+      </c>
+      <c r="K58">
+        <v>20.492857140000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>11.606666666666667</v>
+      </c>
+      <c r="D59">
+        <v>-1.3600000000000003</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>11.606666666666667</v>
+      </c>
+      <c r="H59">
+        <v>-1.3600000000000003</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="1"/>
+        <v>29.058571428571426</v>
+      </c>
+      <c r="J59">
+        <v>-8.6142857142857139</v>
+      </c>
+      <c r="K59">
+        <v>20.444285714285712</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>11.613636363636365</v>
+      </c>
+      <c r="D60">
+        <v>-1.3163636363636362</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>11.613636363636365</v>
+      </c>
+      <c r="H60">
+        <v>-1.3163636363636362</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="1"/>
+        <v>29.059545454545457</v>
+      </c>
+      <c r="J60">
+        <v>-8.6399999999999988</v>
+      </c>
+      <c r="K60">
+        <v>20.41954545454546</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>11.67857143</v>
+      </c>
+      <c r="D61">
+        <v>-1.03</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>11.67857143</v>
+      </c>
+      <c r="H61">
+        <v>-1.03</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="1"/>
+        <v>28.999999999</v>
+      </c>
+      <c r="J61">
+        <v>-8.5990476190000003</v>
+      </c>
+      <c r="K61">
+        <v>20.40095238</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>11.756500000000001</v>
+      </c>
+      <c r="D62">
+        <v>-1.0565000000000002</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>11.756500000000001</v>
+      </c>
+      <c r="H62">
+        <v>-1.0565000000000002</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="1"/>
+        <v>28.499500000000005</v>
+      </c>
+      <c r="J62">
+        <v>-8.2885000000000026</v>
+      </c>
+      <c r="K62">
+        <v>20.211000000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>15.054500000000001</v>
+      </c>
+      <c r="D63">
+        <v>6.4909999999999997</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>15.054500000000001</v>
+      </c>
+      <c r="H63">
+        <v>6.4909999999999997</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="1"/>
+        <v>18.227</v>
+      </c>
+      <c r="J63">
+        <v>2.1465000000000001</v>
+      </c>
+      <c r="K63">
+        <v>20.3735</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>15.031499999999999</v>
+      </c>
+      <c r="D64">
+        <v>6.3739999999999997</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>15.031499999999999</v>
+      </c>
+      <c r="H64">
+        <v>6.3739999999999997</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="1"/>
+        <v>18.1905</v>
+      </c>
+      <c r="J64">
+        <v>2.1970000000000001</v>
+      </c>
+      <c r="K64">
+        <v>20.387499999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>15.164999999999999</v>
+      </c>
+      <c r="D65">
+        <v>6.7385000000000002</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>15.164999999999999</v>
+      </c>
+      <c r="H65">
+        <v>6.7385000000000002</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="1"/>
+        <v>18.139000000000003</v>
+      </c>
+      <c r="J65">
+        <v>2.2324999999999999</v>
+      </c>
+      <c r="K65">
+        <v>20.371500000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>15.1265</v>
+      </c>
+      <c r="D66">
+        <v>6.5025000000000004</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>15.1265</v>
+      </c>
+      <c r="H66">
+        <v>6.5025000000000004</v>
+      </c>
+      <c r="I66">
+        <f t="shared" ref="I66:I70" si="3">K66-J66</f>
+        <v>18.350999999999999</v>
+      </c>
+      <c r="J66">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K66">
+        <v>20.550999999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>17.91571429</v>
+      </c>
+      <c r="D67">
+        <v>13.25571429</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>17.91571429</v>
+      </c>
+      <c r="H67">
+        <v>13.25571429</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="3"/>
+        <v>9.8280952399999979</v>
+      </c>
+      <c r="J67">
+        <v>10.97</v>
+      </c>
+      <c r="K67">
+        <v>20.798095239999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>17.8965</v>
+      </c>
+      <c r="D68">
+        <v>13.515000000000001</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>17.8965</v>
+      </c>
+      <c r="H68">
+        <v>13.515000000000001</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="3"/>
+        <v>9.5</v>
+      </c>
+      <c r="J68">
+        <v>11.1645</v>
+      </c>
+      <c r="K68">
+        <v>20.6645</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>17.78</v>
+      </c>
+      <c r="D69">
+        <v>13.465000000000002</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>17.78</v>
+      </c>
+      <c r="H69">
+        <v>13.465000000000002</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="3"/>
+        <v>9.3612500000000018</v>
+      </c>
+      <c r="J69">
+        <v>11.164999999999999</v>
+      </c>
+      <c r="K69">
+        <v>20.526250000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>20.477499999999999</v>
+      </c>
+      <c r="D70">
+        <v>20.137499999999999</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>20.477499999999999</v>
+      </c>
+      <c r="H70">
+        <v>20.137499999999999</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="3"/>
+        <v>0.7900000000000027</v>
+      </c>
+      <c r="J70">
+        <v>19.988499999999998</v>
+      </c>
+      <c r="K70">
+        <v>20.778500000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>